--- a/results/synthetic_constraint_0.1_opt_constrained/k=0.1/Distorted_greedy/dataset_08/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/synthetic_constraint_0.1_opt_constrained/k=0.1/Distorted_greedy/dataset_08/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantina\Desktop\HDrop20-Master-Thesis-Experiments\results\synthetic_constraint_0.1_opt_constrained\k=0.1\Distorted_greedy\dataset_08\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68AC69A-978C-457A-B390-5863D125DDD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>dataset</t>
   </si>
@@ -182,13 +201,25 @@
   </si>
   <si>
     <t>Official_Experiment_dgreedy_dataset_08_instance_30_29_exec</t>
+  </si>
+  <si>
+    <t>Average of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Average of SC(S*)/SC(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SC(S*)/SC(OPT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +233,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -240,22 +280,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -297,7 +348,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,9 +380,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,6 +432,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -538,14 +625,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:B37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -645,16 +734,16 @@
         <v>205.4935049353482</v>
       </c>
       <c r="H2">
-        <v>46.79226627760276</v>
+        <v>46.792266277602756</v>
       </c>
       <c r="I2">
-        <v>158.7012386577455</v>
+        <v>158.70123865774551</v>
       </c>
       <c r="J2">
         <v>0.1</v>
       </c>
       <c r="K2">
-        <v>158.7012386577454</v>
+        <v>158.70123865774539</v>
       </c>
       <c r="L2">
         <v>5</v>
@@ -669,40 +758,40 @@
         <v>205.4935049353482</v>
       </c>
       <c r="P2">
-        <v>46.79226627760276</v>
+        <v>46.792266277602756</v>
       </c>
       <c r="Q2">
-        <v>1.479696488493118</v>
+        <v>1.4796964884931181</v>
       </c>
       <c r="R2">
-        <v>89.46288655814172</v>
+        <v>89.462886558141719</v>
       </c>
       <c r="S2">
-        <v>4.391612573672419</v>
+        <v>4.3916125736724192</v>
       </c>
       <c r="T2">
-        <v>4.391612573672419</v>
+        <v>4.3916125736724192</v>
       </c>
       <c r="U2">
-        <v>1.479696488493118</v>
+        <v>1.4796964884931181</v>
       </c>
       <c r="V2">
-        <v>89.46288655814172</v>
+        <v>89.462886558141719</v>
       </c>
       <c r="W2">
-        <v>68.89442738473383</v>
+        <v>68.894427384733831</v>
       </c>
       <c r="X2">
-        <v>227.5956660424793</v>
+        <v>227.59566604247931</v>
       </c>
       <c r="Y2">
-        <v>68.89442738473389</v>
+        <v>68.894427384733888</v>
       </c>
       <c r="Z2">
-        <v>0.9999999999999992</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+        <v>0.99999999999999922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -722,10 +811,10 @@
         <v>4</v>
       </c>
       <c r="G3">
-        <v>237.2841633861715</v>
+        <v>237.28416338617151</v>
       </c>
       <c r="H3">
-        <v>26.92494601505225</v>
+        <v>26.924946015052249</v>
       </c>
       <c r="I3">
         <v>210.3592173711192</v>
@@ -746,43 +835,43 @@
         <v>1</v>
       </c>
       <c r="O3">
-        <v>237.2841633861715</v>
+        <v>237.28416338617151</v>
       </c>
       <c r="P3">
-        <v>26.92494601505225</v>
+        <v>26.924946015052249</v>
       </c>
       <c r="Q3">
-        <v>2.176205206507685</v>
+        <v>2.1762052065076851</v>
       </c>
       <c r="R3">
-        <v>151.7650096682241</v>
+        <v>151.76500966822411</v>
       </c>
       <c r="S3">
-        <v>8.812799968234627</v>
+        <v>8.8127999682346267</v>
       </c>
       <c r="T3">
-        <v>8.812799968234627</v>
+        <v>8.8127999682346267</v>
       </c>
       <c r="U3">
-        <v>2.176205206507685</v>
+        <v>2.1762052065076851</v>
       </c>
       <c r="V3">
-        <v>151.7650096682241</v>
+        <v>151.76500966822411</v>
       </c>
       <c r="W3">
-        <v>34.11509957193883</v>
+        <v>34.115099571938828</v>
       </c>
       <c r="X3">
         <v>244.474316943058</v>
       </c>
       <c r="Y3">
-        <v>34.11509957193883</v>
+        <v>34.115099571938828</v>
       </c>
       <c r="Z3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -802,19 +891,19 @@
         <v>5</v>
       </c>
       <c r="G4">
-        <v>235.9124540206934</v>
+        <v>235.91245402069339</v>
       </c>
       <c r="H4">
-        <v>29.6118589904666</v>
+        <v>29.611858990466601</v>
       </c>
       <c r="I4">
-        <v>206.3005950302268</v>
+        <v>206.30059503022679</v>
       </c>
       <c r="J4">
         <v>0.1</v>
       </c>
       <c r="K4">
-        <v>215.7323646952256</v>
+        <v>215.73236469522561</v>
       </c>
       <c r="L4">
         <v>5</v>
@@ -823,46 +912,46 @@
         <v>0.1</v>
       </c>
       <c r="N4">
-        <v>0.9562802286141744</v>
+        <v>0.95628022861417439</v>
       </c>
       <c r="O4">
-        <v>241.994526859706</v>
+        <v>241.99452685970601</v>
       </c>
       <c r="P4">
-        <v>26.26216216448037</v>
+        <v>26.262162164480369</v>
       </c>
       <c r="Q4">
         <v>2.220785907329287</v>
       </c>
       <c r="R4">
-        <v>157.4097250643512</v>
+        <v>157.40972506435119</v>
       </c>
       <c r="S4">
-        <v>9.214569818893438</v>
+        <v>9.2145698188934375</v>
       </c>
       <c r="T4">
-        <v>7.966823497864294</v>
+        <v>7.9668234978642936</v>
       </c>
       <c r="U4">
-        <v>2.075285855999979</v>
+        <v>2.0752858559999789</v>
       </c>
       <c r="V4">
         <v>144.8475228974456</v>
       </c>
       <c r="W4">
-        <v>54.26606810377601</v>
+        <v>54.266068103776007</v>
       </c>
       <c r="X4">
-        <v>260.5666631340028</v>
+        <v>260.56666313400279</v>
       </c>
       <c r="Y4">
-        <v>44.83429843877718</v>
+        <v>44.834298438777182</v>
       </c>
       <c r="Z4">
         <v>1.210369516049822</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -882,13 +971,13 @@
         <v>5</v>
       </c>
       <c r="G5">
-        <v>227.9519622438171</v>
+        <v>227.95196224381709</v>
       </c>
       <c r="H5">
         <v>58.4359642414814</v>
       </c>
       <c r="I5">
-        <v>169.5159980023357</v>
+        <v>169.51599800233569</v>
       </c>
       <c r="J5">
         <v>0.1</v>
@@ -903,22 +992,22 @@
         <v>0.1</v>
       </c>
       <c r="N5">
-        <v>0.9577153728391827</v>
+        <v>0.95771537283918273</v>
       </c>
       <c r="O5">
-        <v>227.9519622438171</v>
+        <v>227.95196224381709</v>
       </c>
       <c r="P5">
-        <v>50.95156858844609</v>
+        <v>50.951568588446086</v>
       </c>
       <c r="Q5">
-        <v>1.498259368828515</v>
+        <v>1.4982593688285151</v>
       </c>
       <c r="R5">
-        <v>100.661728661223</v>
+        <v>100.66172866122299</v>
       </c>
       <c r="S5">
-        <v>4.473894888007591</v>
+        <v>4.4738948880075906</v>
       </c>
       <c r="T5">
         <v>3.90088475825993</v>
@@ -927,22 +1016,22 @@
         <v>1.361203388498804</v>
       </c>
       <c r="V5">
-        <v>89.97276546663629</v>
+        <v>89.972765466636289</v>
       </c>
       <c r="W5">
-        <v>78.95745846337857</v>
+        <v>78.957458463378572</v>
       </c>
       <c r="X5">
-        <v>248.4734564657143</v>
+        <v>248.47345646571429</v>
       </c>
       <c r="Y5">
-        <v>71.47306281034332</v>
+        <v>71.473062810343322</v>
       </c>
       <c r="Z5">
         <v>1.104716313513741</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -962,19 +1051,19 @@
         <v>5</v>
       </c>
       <c r="G6">
-        <v>277.4208822277863</v>
+        <v>277.42088222778631</v>
       </c>
       <c r="H6">
-        <v>51.62638894070429</v>
+        <v>51.626388940704288</v>
       </c>
       <c r="I6">
-        <v>225.794493287082</v>
+        <v>225.79449328708199</v>
       </c>
       <c r="J6">
         <v>0.1</v>
       </c>
       <c r="K6">
-        <v>225.794493287082</v>
+        <v>225.79449328708199</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -986,43 +1075,43 @@
         <v>1</v>
       </c>
       <c r="O6">
-        <v>277.4208822277863</v>
+        <v>277.42088222778631</v>
       </c>
       <c r="P6">
-        <v>51.62638894070429</v>
+        <v>51.626388940704288</v>
       </c>
       <c r="Q6">
-        <v>1.681502828106406</v>
+        <v>1.6815028281064059</v>
       </c>
       <c r="R6">
-        <v>138.9845742783665</v>
+        <v>138.98457427836649</v>
       </c>
       <c r="S6">
-        <v>5.373625541511712</v>
+        <v>5.3736255415117116</v>
       </c>
       <c r="T6">
-        <v>5.373625541511712</v>
+        <v>5.3736255415117116</v>
       </c>
       <c r="U6">
-        <v>1.681502828106406</v>
+        <v>1.6815028281064059</v>
       </c>
       <c r="V6">
-        <v>138.9845742783665</v>
+        <v>138.98457427836649</v>
       </c>
       <c r="W6">
-        <v>51.62638894070435</v>
+        <v>51.626388940704352</v>
       </c>
       <c r="X6">
-        <v>277.4208822277864</v>
+        <v>277.42088222778642</v>
       </c>
       <c r="Y6">
-        <v>51.62638894070437</v>
+        <v>51.626388940704373</v>
       </c>
       <c r="Z6">
-        <v>0.9999999999999994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1042,13 +1131,13 @@
         <v>5</v>
       </c>
       <c r="G7">
-        <v>234.791175996588</v>
+        <v>234.79117599658801</v>
       </c>
       <c r="H7">
-        <v>36.93417499048663</v>
+        <v>36.934174990486632</v>
       </c>
       <c r="I7">
-        <v>197.8570010061013</v>
+        <v>197.85700100610131</v>
       </c>
       <c r="J7">
         <v>0.1</v>
@@ -1063,46 +1152,46 @@
         <v>0.1</v>
       </c>
       <c r="N7">
-        <v>0.9999999999999997</v>
+        <v>0.99999999999999967</v>
       </c>
       <c r="O7">
-        <v>234.791175996588</v>
+        <v>234.79117599658801</v>
       </c>
       <c r="P7">
-        <v>36.93417499048663</v>
+        <v>36.934174990486632</v>
       </c>
       <c r="Q7">
         <v>1.849559232376796</v>
       </c>
       <c r="R7">
-        <v>129.5450566622266</v>
+        <v>129.54505666222661</v>
       </c>
       <c r="S7">
-        <v>6.357016937756553</v>
+        <v>6.3570169377565531</v>
       </c>
       <c r="T7">
-        <v>6.357016937756553</v>
+        <v>6.3570169377565531</v>
       </c>
       <c r="U7">
         <v>1.849559232376796</v>
       </c>
       <c r="V7">
-        <v>129.5450566622266</v>
+        <v>129.54505666222661</v>
       </c>
       <c r="W7">
         <v>43.27865609692887</v>
       </c>
       <c r="X7">
-        <v>241.1356571030302</v>
+        <v>241.13565710303021</v>
       </c>
       <c r="Y7">
-        <v>43.27865609692881</v>
+        <v>43.278656096928813</v>
       </c>
       <c r="Z7">
-        <v>1.000000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+        <v>1.0000000000000011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1125,16 +1214,16 @@
         <v>222.0335831647958</v>
       </c>
       <c r="H8">
-        <v>30.62521635468663</v>
+        <v>30.625216354686629</v>
       </c>
       <c r="I8">
-        <v>191.4083668101092</v>
+        <v>191.40836681010919</v>
       </c>
       <c r="J8">
         <v>0.1</v>
       </c>
       <c r="K8">
-        <v>199.500362233336</v>
+        <v>199.50036223333601</v>
       </c>
       <c r="L8">
         <v>5</v>
@@ -1146,43 +1235,43 @@
         <v>0.9594386930798533</v>
       </c>
       <c r="O8">
-        <v>235.3983800173193</v>
+        <v>235.39838001731931</v>
       </c>
       <c r="P8">
-        <v>35.89801778398326</v>
+        <v>35.898017783983263</v>
       </c>
       <c r="Q8">
-        <v>1.880597233933922</v>
+        <v>1.8805972339339221</v>
       </c>
       <c r="R8">
         <v>131.9906492850663</v>
       </c>
       <c r="S8">
-        <v>6.557420006693175</v>
+        <v>6.5574200066931754</v>
       </c>
       <c r="T8">
-        <v>7.25002496613604</v>
+        <v>7.2500249661360403</v>
       </c>
       <c r="U8">
         <v>1.981004912465625</v>
       </c>
       <c r="V8">
-        <v>130.7396627661524</v>
+        <v>130.73966276615241</v>
       </c>
       <c r="W8">
-        <v>56.37926988143278</v>
+        <v>56.379269881432784</v>
       </c>
       <c r="X8">
-        <v>247.787636691542</v>
+        <v>247.78763669154199</v>
       </c>
       <c r="Y8">
-        <v>48.28727445820599</v>
+        <v>48.287274458205992</v>
       </c>
       <c r="Z8">
-        <v>1.167580289300251</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+        <v>1.1675802893002509</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1202,19 +1291,19 @@
         <v>5</v>
       </c>
       <c r="G9">
-        <v>260.4563817149609</v>
+        <v>260.45638171496091</v>
       </c>
       <c r="H9">
-        <v>39.62185790693861</v>
+        <v>39.621857906938608</v>
       </c>
       <c r="I9">
-        <v>220.8345238080223</v>
+        <v>220.83452380802231</v>
       </c>
       <c r="J9">
         <v>0.1</v>
       </c>
       <c r="K9">
-        <v>220.8345238080223</v>
+        <v>220.83452380802231</v>
       </c>
       <c r="L9">
         <v>5</v>
@@ -1226,43 +1315,43 @@
         <v>1</v>
       </c>
       <c r="O9">
-        <v>260.4563817149609</v>
+        <v>260.45638171496091</v>
       </c>
       <c r="P9">
-        <v>39.62185790693861</v>
+        <v>39.621857906938608</v>
       </c>
       <c r="Q9">
-        <v>1.883054473210701</v>
+        <v>1.8830544732107011</v>
       </c>
       <c r="R9">
-        <v>146.2244070394428</v>
+        <v>146.22440703944281</v>
       </c>
       <c r="S9">
-        <v>6.573552969845707</v>
+        <v>6.5735529698457071</v>
       </c>
       <c r="T9">
-        <v>6.573552969845707</v>
+        <v>6.5735529698457071</v>
       </c>
       <c r="U9">
-        <v>1.883054473210701</v>
+        <v>1.8830544732107011</v>
       </c>
       <c r="V9">
-        <v>146.2244070394428</v>
+        <v>146.22440703944281</v>
       </c>
       <c r="W9">
-        <v>50.94495337052018</v>
+        <v>50.944953370520182</v>
       </c>
       <c r="X9">
-        <v>271.7794771785425</v>
+        <v>271.77947717854249</v>
       </c>
       <c r="Y9">
-        <v>50.94495337052018</v>
+        <v>50.944953370520182</v>
       </c>
       <c r="Z9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1285,7 +1374,7 @@
         <v>232.9432385439307</v>
       </c>
       <c r="H10">
-        <v>46.1350312811522</v>
+        <v>46.135031281152202</v>
       </c>
       <c r="I10">
         <v>186.8082072627785</v>
@@ -1309,7 +1398,7 @@
         <v>232.9432385439307</v>
       </c>
       <c r="P10">
-        <v>46.1350312811522</v>
+        <v>46.135031281152202</v>
       </c>
       <c r="Q10">
         <v>1.619222253422733</v>
@@ -1318,10 +1407,10 @@
         <v>112.105337949983</v>
       </c>
       <c r="S10">
-        <v>5.049161820750652</v>
+        <v>5.0491618207506521</v>
       </c>
       <c r="T10">
-        <v>5.049161820750652</v>
+        <v>5.0491618207506521</v>
       </c>
       <c r="U10">
         <v>1.619222253422733</v>
@@ -1330,19 +1419,19 @@
         <v>112.105337949983</v>
       </c>
       <c r="W10">
-        <v>56.4642422039486</v>
+        <v>56.464242203948601</v>
       </c>
       <c r="X10">
         <v>243.2724494667271</v>
       </c>
       <c r="Y10">
-        <v>56.4642422039486</v>
+        <v>56.464242203948601</v>
       </c>
       <c r="Z10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1365,10 +1454,10 @@
         <v>232.101172699752</v>
       </c>
       <c r="H11">
-        <v>29.28008633708789</v>
+        <v>29.280086337087891</v>
       </c>
       <c r="I11">
-        <v>202.8210863626641</v>
+        <v>202.82108636266409</v>
       </c>
       <c r="J11">
         <v>0.08</v>
@@ -1383,46 +1472,46 @@
         <v>0.08</v>
       </c>
       <c r="N11">
-        <v>0.9943614441517251</v>
+        <v>0.99436144415172512</v>
       </c>
       <c r="O11">
-        <v>244.4068383480964</v>
+        <v>244.40683834809639</v>
       </c>
       <c r="P11">
-        <v>40.43564904309697</v>
+        <v>40.435649043096973</v>
       </c>
       <c r="Q11">
         <v>1.799122409117561</v>
       </c>
       <c r="R11">
-        <v>131.2225069843506</v>
+        <v>131.22250698435059</v>
       </c>
       <c r="S11">
-        <v>6.044340677890533</v>
+        <v>6.0443406778905331</v>
       </c>
       <c r="T11">
-        <v>7.926929245620392</v>
+        <v>7.9269292456203919</v>
       </c>
       <c r="U11">
-        <v>2.070265728070311</v>
+        <v>2.0702657280703112</v>
       </c>
       <c r="V11">
-        <v>142.2035271040513</v>
+        <v>142.20352710405129</v>
       </c>
       <c r="W11">
-        <v>79.97600182825599</v>
+        <v>79.976001828255988</v>
       </c>
       <c r="X11">
-        <v>282.7970881909201</v>
+        <v>282.79708819092008</v>
       </c>
       <c r="Y11">
-        <v>78.82589888592071</v>
+        <v>78.825898885920708</v>
       </c>
       <c r="Z11">
         <v>1.014590419628449</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1442,19 +1531,19 @@
         <v>3</v>
       </c>
       <c r="G12">
-        <v>256.1433965016357</v>
+        <v>256.14339650163572</v>
       </c>
       <c r="H12">
-        <v>31.00089684804472</v>
+        <v>31.000896848044722</v>
       </c>
       <c r="I12">
-        <v>225.142499653591</v>
+        <v>225.14249965359099</v>
       </c>
       <c r="J12">
         <v>0.06</v>
       </c>
       <c r="K12">
-        <v>231.1107490536695</v>
+        <v>231.11074905366951</v>
       </c>
       <c r="L12">
         <v>4</v>
@@ -1466,13 +1555,13 @@
         <v>0.9741758034859187</v>
       </c>
       <c r="O12">
-        <v>256.1433965016357</v>
+        <v>256.14339650163572</v>
       </c>
       <c r="P12">
-        <v>25.03264744796624</v>
+        <v>25.032647447966241</v>
       </c>
       <c r="Q12">
-        <v>2.325556559398995</v>
+        <v>2.3255565593989949</v>
       </c>
       <c r="R12">
         <v>172.895911581929</v>
@@ -1481,28 +1570,28 @@
         <v>10.23237342490699</v>
       </c>
       <c r="T12">
-        <v>8.2624511722083</v>
+        <v>8.2624511722082996</v>
       </c>
       <c r="U12">
         <v>2.111721295594025</v>
       </c>
       <c r="V12">
-        <v>159.6772455970612</v>
+        <v>159.67724559706119</v>
       </c>
       <c r="W12">
-        <v>34.42596982719112</v>
+        <v>34.425969827191118</v>
       </c>
       <c r="X12">
-        <v>259.5684694807821</v>
+        <v>259.56846948078208</v>
       </c>
       <c r="Y12">
         <v>28.45772042711263</v>
       </c>
       <c r="Z12">
-        <v>1.209723382987217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
+        <v>1.2097233829872169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1522,19 +1611,19 @@
         <v>5</v>
       </c>
       <c r="G13">
-        <v>288.8188181601054</v>
+        <v>288.81881816010542</v>
       </c>
       <c r="H13">
-        <v>47.85697629112082</v>
+        <v>47.856976291120823</v>
       </c>
       <c r="I13">
-        <v>240.9618418689845</v>
+        <v>240.96184186898449</v>
       </c>
       <c r="J13">
         <v>0.1</v>
       </c>
       <c r="K13">
-        <v>240.9618418689845</v>
+        <v>240.96184186898449</v>
       </c>
       <c r="L13">
         <v>5</v>
@@ -1546,43 +1635,43 @@
         <v>1</v>
       </c>
       <c r="O13">
-        <v>288.8188181601054</v>
+        <v>288.81881816010542</v>
       </c>
       <c r="P13">
-        <v>47.85697629112081</v>
+        <v>47.856976291120809</v>
       </c>
       <c r="Q13">
-        <v>1.797582662450368</v>
+        <v>1.7975826624503679</v>
       </c>
       <c r="R13">
         <v>154.9349710107675</v>
       </c>
       <c r="S13">
-        <v>6.035041085821622</v>
+        <v>6.0350410858216224</v>
       </c>
       <c r="T13">
-        <v>6.035041085821621</v>
+        <v>6.0350410858216206</v>
       </c>
       <c r="U13">
-        <v>1.797582662450368</v>
+        <v>1.7975826624503679</v>
       </c>
       <c r="V13">
         <v>154.9349710107675</v>
       </c>
       <c r="W13">
-        <v>47.85697629112076</v>
+        <v>47.856976291120759</v>
       </c>
       <c r="X13">
-        <v>288.8188181601053</v>
+        <v>288.81881816010531</v>
       </c>
       <c r="Y13">
-        <v>47.85697629112076</v>
+        <v>47.856976291120759</v>
       </c>
       <c r="Z13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1605,16 +1694,16 @@
         <v>220.4883478052121</v>
       </c>
       <c r="H14">
-        <v>30.8790716899094</v>
+        <v>30.879071689909399</v>
       </c>
       <c r="I14">
-        <v>189.6092761153027</v>
+        <v>189.60927611530269</v>
       </c>
       <c r="J14">
         <v>0.06</v>
       </c>
       <c r="K14">
-        <v>189.6092761153028</v>
+        <v>189.60927611530281</v>
       </c>
       <c r="L14">
         <v>3</v>
@@ -1623,46 +1712,46 @@
         <v>0.06</v>
       </c>
       <c r="N14">
-        <v>0.9999999999999996</v>
+        <v>0.99999999999999956</v>
       </c>
       <c r="O14">
         <v>220.4883478052121</v>
       </c>
       <c r="P14">
-        <v>30.8790716899094</v>
+        <v>30.879071689909399</v>
       </c>
       <c r="Q14">
-        <v>1.965766186220335</v>
+        <v>1.9657661862203351</v>
       </c>
       <c r="R14">
         <v>128.9082411254052</v>
       </c>
       <c r="S14">
-        <v>7.140381356647547</v>
+        <v>7.1403813566475467</v>
       </c>
       <c r="T14">
-        <v>7.140381356647547</v>
+        <v>7.1403813566475467</v>
       </c>
       <c r="U14">
-        <v>1.965766186220335</v>
+        <v>1.9657661862203351</v>
       </c>
       <c r="V14">
         <v>128.9082411254052</v>
       </c>
       <c r="W14">
-        <v>41.83529170219205</v>
+        <v>41.835291702192052</v>
       </c>
       <c r="X14">
         <v>231.4445678174948</v>
       </c>
       <c r="Y14">
-        <v>41.83529170219197</v>
+        <v>41.835291702191967</v>
       </c>
       <c r="Z14">
         <v>1.000000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1685,16 +1774,16 @@
         <v>261.2707049484024</v>
       </c>
       <c r="H15">
-        <v>53.02807414970492</v>
+        <v>53.028074149704921</v>
       </c>
       <c r="I15">
-        <v>208.2426307986975</v>
+        <v>208.24263079869749</v>
       </c>
       <c r="J15">
         <v>0.1</v>
       </c>
       <c r="K15">
-        <v>209.5180387248002</v>
+        <v>209.51803872480019</v>
       </c>
       <c r="L15">
         <v>4</v>
@@ -1706,43 +1795,43 @@
         <v>0.9939126581469292</v>
       </c>
       <c r="O15">
-        <v>270.0607667565276</v>
+        <v>270.06076675652758</v>
       </c>
       <c r="P15">
-        <v>60.54272803172741</v>
+        <v>60.542728031727407</v>
       </c>
       <c r="Q15">
-        <v>1.495297631517904</v>
+        <v>1.4952976315179041</v>
       </c>
       <c r="R15">
         <v>118.9886408933256</v>
       </c>
       <c r="S15">
-        <v>4.460663989488586</v>
+        <v>4.4606639894885856</v>
       </c>
       <c r="T15">
-        <v>4.927026092081005</v>
+        <v>4.9270260920810047</v>
       </c>
       <c r="U15">
-        <v>1.59473557928172</v>
+        <v>1.5947355792817199</v>
       </c>
       <c r="V15">
         <v>123.6768742513738</v>
       </c>
       <c r="W15">
-        <v>76.87491822092466</v>
+        <v>76.874918220924656</v>
       </c>
       <c r="X15">
-        <v>285.1175490196221</v>
+        <v>285.11754901962212</v>
       </c>
       <c r="Y15">
-        <v>75.59951029482187</v>
+        <v>75.599510294821869</v>
       </c>
       <c r="Z15">
         <v>1.016870584493589</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1762,19 +1851,19 @@
         <v>4</v>
       </c>
       <c r="G16">
-        <v>281.8737893346923</v>
+        <v>281.87378933469228</v>
       </c>
       <c r="H16">
-        <v>42.11705234027735</v>
+        <v>42.117052340277347</v>
       </c>
       <c r="I16">
-        <v>239.756736994415</v>
+        <v>239.75673699441501</v>
       </c>
       <c r="J16">
         <v>0.08</v>
       </c>
       <c r="K16">
-        <v>241.9188592497576</v>
+        <v>241.91885924975759</v>
       </c>
       <c r="L16">
         <v>5</v>
@@ -1783,25 +1872,25 @@
         <v>0.1</v>
       </c>
       <c r="N16">
-        <v>0.9910626138778603</v>
+        <v>0.99106261387786032</v>
       </c>
       <c r="O16">
-        <v>291.7396124440075</v>
+        <v>291.73961244400749</v>
       </c>
       <c r="P16">
-        <v>49.82075319424995</v>
+        <v>49.820753194249953</v>
       </c>
       <c r="Q16">
-        <v>1.767430038197115</v>
+        <v>1.7674300381971151</v>
       </c>
       <c r="R16">
-        <v>153.8641635286353</v>
+        <v>153.86416352863529</v>
       </c>
       <c r="S16">
         <v>5.855784863519057</v>
       </c>
       <c r="T16">
-        <v>6.692628606991354</v>
+        <v>6.6926286069913541</v>
       </c>
       <c r="U16">
         <v>1.901006712812173</v>
@@ -1810,19 +1899,19 @@
         <v>159.6919377716861</v>
       </c>
       <c r="W16">
-        <v>51.98287544959257</v>
+        <v>51.982875449592569</v>
       </c>
       <c r="X16">
-        <v>291.7396124440075</v>
+        <v>291.73961244400749</v>
       </c>
       <c r="Y16">
-        <v>49.82075319424993</v>
+        <v>49.820753194249932</v>
       </c>
       <c r="Z16">
         <v>1.043398024251311</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1842,19 +1931,19 @@
         <v>4</v>
       </c>
       <c r="G17">
-        <v>249.5752437525121</v>
+        <v>249.57524375251211</v>
       </c>
       <c r="H17">
-        <v>39.67989151769307</v>
+        <v>39.679891517693072</v>
       </c>
       <c r="I17">
-        <v>209.8953522348191</v>
+        <v>209.89535223481909</v>
       </c>
       <c r="J17">
         <v>0.08</v>
       </c>
       <c r="K17">
-        <v>209.8953522348191</v>
+        <v>209.89535223481909</v>
       </c>
       <c r="L17">
         <v>4</v>
@@ -1866,43 +1955,43 @@
         <v>1</v>
       </c>
       <c r="O17">
-        <v>249.5752437525121</v>
+        <v>249.57524375251211</v>
       </c>
       <c r="P17">
-        <v>39.67989151769307</v>
+        <v>39.679891517693072</v>
       </c>
       <c r="Q17">
         <v>1.838915899408571</v>
       </c>
       <c r="R17">
-        <v>136.9273688361259</v>
+        <v>136.92736883612591</v>
       </c>
       <c r="S17">
-        <v>6.289715878916346</v>
+        <v>6.2897158789163461</v>
       </c>
       <c r="T17">
-        <v>6.289715878916346</v>
+        <v>6.2897158789163461</v>
       </c>
       <c r="U17">
         <v>1.838915899408571</v>
       </c>
       <c r="V17">
-        <v>136.9273688361259</v>
+        <v>136.92736883612591</v>
       </c>
       <c r="W17">
-        <v>65.96969411071771</v>
+        <v>65.969694110717711</v>
       </c>
       <c r="X17">
-        <v>275.8650463455368</v>
+        <v>275.86504634553683</v>
       </c>
       <c r="Y17">
-        <v>65.96969411071771</v>
+        <v>65.969694110717711</v>
       </c>
       <c r="Z17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1922,19 +2011,19 @@
         <v>5</v>
       </c>
       <c r="G18">
-        <v>284.2735021787552</v>
+        <v>284.27350217875522</v>
       </c>
       <c r="H18">
-        <v>53.14923946163844</v>
+        <v>53.149239461638437</v>
       </c>
       <c r="I18">
-        <v>231.1242627171168</v>
+        <v>231.12426271711681</v>
       </c>
       <c r="J18">
         <v>0.1</v>
       </c>
       <c r="K18">
-        <v>231.1242627171167</v>
+        <v>231.12426271711669</v>
       </c>
       <c r="L18">
         <v>5</v>
@@ -1946,10 +2035,10 @@
         <v>1</v>
       </c>
       <c r="O18">
-        <v>284.2735021787552</v>
+        <v>284.27350217875522</v>
       </c>
       <c r="P18">
-        <v>53.14923946163844</v>
+        <v>53.149239461638437</v>
       </c>
       <c r="Q18">
         <v>1.676833015177241</v>
@@ -1961,28 +2050,28 @@
         <v>5.348590216120316</v>
       </c>
       <c r="T18">
-        <v>5.348590216120317</v>
+        <v>5.3485902161203169</v>
       </c>
       <c r="U18">
         <v>1.676833015177241</v>
       </c>
       <c r="V18">
-        <v>142.0018632562804</v>
+        <v>142.00186325628039</v>
       </c>
       <c r="W18">
         <v>56.39748644014378</v>
       </c>
       <c r="X18">
-        <v>287.5217491572606</v>
+        <v>287.52174915726061</v>
       </c>
       <c r="Y18">
-        <v>56.39748644014384</v>
+        <v>56.397486440143837</v>
       </c>
       <c r="Z18">
         <v>0.999999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2005,7 +2094,7 @@
         <v>234.2778426632558</v>
       </c>
       <c r="H19">
-        <v>28.5026344266675</v>
+        <v>28.502634426667498</v>
       </c>
       <c r="I19">
         <v>205.7752082365883</v>
@@ -2023,37 +2112,37 @@
         <v>0.06</v>
       </c>
       <c r="N19">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="O19">
         <v>234.2778426632558</v>
       </c>
       <c r="P19">
-        <v>28.5026344266675</v>
+        <v>28.502634426667498</v>
       </c>
       <c r="Q19">
-        <v>2.10651125378387</v>
+        <v>2.1065112537838702</v>
       </c>
       <c r="R19">
-        <v>145.7340880543256</v>
+        <v>145.73408805432561</v>
       </c>
       <c r="S19">
-        <v>8.219515401848675</v>
+        <v>8.2195154018486747</v>
       </c>
       <c r="T19">
-        <v>8.219515401848675</v>
+        <v>8.2195154018486747</v>
       </c>
       <c r="U19">
-        <v>2.10651125378387</v>
+        <v>2.1065112537838702</v>
       </c>
       <c r="V19">
-        <v>145.7340880543256</v>
+        <v>145.73408805432561</v>
       </c>
       <c r="W19">
-        <v>53.10900905358517</v>
+        <v>53.109009053585169</v>
       </c>
       <c r="X19">
-        <v>258.8842172901735</v>
+        <v>258.88421729017352</v>
       </c>
       <c r="Y19">
         <v>53.10900905358514</v>
@@ -2062,7 +2151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2082,19 +2171,19 @@
         <v>4</v>
       </c>
       <c r="G20">
-        <v>295.6658367374208</v>
+        <v>295.66583673742082</v>
       </c>
       <c r="H20">
-        <v>55.79835702623208</v>
+        <v>55.798357026232082</v>
       </c>
       <c r="I20">
-        <v>239.8674797111887</v>
+        <v>239.86747971118871</v>
       </c>
       <c r="J20">
         <v>0.08</v>
       </c>
       <c r="K20">
-        <v>245.2286736060119</v>
+        <v>245.22867360601191</v>
       </c>
       <c r="L20">
         <v>5</v>
@@ -2106,13 +2195,13 @@
         <v>0.9781379811096782</v>
       </c>
       <c r="O20">
-        <v>297.1901333622746</v>
+        <v>297.19013336227459</v>
       </c>
       <c r="P20">
-        <v>51.96145975626276</v>
+        <v>51.961459756262762</v>
       </c>
       <c r="Q20">
-        <v>1.743869828391818</v>
+        <v>1.7438698283918179</v>
       </c>
       <c r="R20">
         <v>154.6146516978695</v>
@@ -2121,28 +2210,28 @@
         <v>5.719433879577549</v>
       </c>
       <c r="T20">
-        <v>5.298826927796844</v>
+        <v>5.2988269277968438</v>
       </c>
       <c r="U20">
         <v>1.667485461682054</v>
       </c>
       <c r="V20">
-        <v>146.824530584202</v>
+        <v>146.82453058420199</v>
       </c>
       <c r="W20">
-        <v>59.8070655629696</v>
+        <v>59.807065562969598</v>
       </c>
       <c r="X20">
-        <v>299.6745452741583</v>
+        <v>299.67454527415828</v>
       </c>
       <c r="Y20">
-        <v>54.4458716681464</v>
+        <v>54.445871668146403</v>
       </c>
       <c r="Z20">
-        <v>1.098468326992729</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
+        <v>1.0984683269927289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2162,19 +2251,19 @@
         <v>4</v>
       </c>
       <c r="G21">
-        <v>241.7103583442723</v>
+        <v>241.71035834427229</v>
       </c>
       <c r="H21">
-        <v>44.73901079341558</v>
+        <v>44.739010793415581</v>
       </c>
       <c r="I21">
-        <v>196.9713475508567</v>
+        <v>196.97134755085671</v>
       </c>
       <c r="J21">
         <v>0.08</v>
       </c>
       <c r="K21">
-        <v>198.1909851787077</v>
+        <v>198.19098517870771</v>
       </c>
       <c r="L21">
         <v>3</v>
@@ -2183,46 +2272,46 @@
         <v>0.06</v>
       </c>
       <c r="N21">
-        <v>0.9938461498299163</v>
+        <v>0.99384614982991626</v>
       </c>
       <c r="O21">
         <v>236.5987075689761</v>
       </c>
       <c r="P21">
-        <v>38.4077223902684</v>
+        <v>38.407722390268397</v>
       </c>
       <c r="Q21">
         <v>1.818106945726234</v>
       </c>
       <c r="R21">
-        <v>128.3616383314358</v>
+        <v>128.36163833143581</v>
       </c>
       <c r="S21">
-        <v>6.160185838796955</v>
+        <v>6.1601858387969548</v>
       </c>
       <c r="T21">
-        <v>5.402675518696219</v>
+        <v>5.4026755186962188</v>
       </c>
       <c r="U21">
-        <v>1.686894297292494</v>
+        <v>1.6868942972924941</v>
       </c>
       <c r="V21">
         <v>121.5013653769366</v>
       </c>
       <c r="W21">
-        <v>50.05837516211474</v>
+        <v>50.058375162114743</v>
       </c>
       <c r="X21">
-        <v>247.0297227129714</v>
+        <v>247.02972271297139</v>
       </c>
       <c r="Y21">
-        <v>48.83873753426369</v>
+        <v>48.838737534263693</v>
       </c>
       <c r="Z21">
-        <v>1.024972750923289</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26">
+        <v>1.0249727509232891</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2242,19 +2331,19 @@
         <v>4</v>
       </c>
       <c r="G22">
-        <v>245.3635115355304</v>
+        <v>245.36351153553039</v>
       </c>
       <c r="H22">
-        <v>29.05387661251494</v>
+        <v>29.053876612514941</v>
       </c>
       <c r="I22">
-        <v>216.3096349230154</v>
+        <v>216.30963492301541</v>
       </c>
       <c r="J22">
         <v>0.08</v>
       </c>
       <c r="K22">
-        <v>216.3096349230154</v>
+        <v>216.30963492301541</v>
       </c>
       <c r="L22">
         <v>4</v>
@@ -2266,43 +2355,43 @@
         <v>1</v>
       </c>
       <c r="O22">
-        <v>245.3635115355304</v>
+        <v>245.36351153553039</v>
       </c>
       <c r="P22">
-        <v>29.05387661251494</v>
+        <v>29.053876612514941</v>
       </c>
       <c r="Q22">
-        <v>2.133588910863423</v>
+        <v>2.1335889108634229</v>
       </c>
       <c r="R22">
-        <v>154.3206059649594</v>
+        <v>154.32060596495941</v>
       </c>
       <c r="S22">
-        <v>8.445121276168708</v>
+        <v>8.4451212761687078</v>
       </c>
       <c r="T22">
-        <v>8.445121276168708</v>
+        <v>8.4451212761687078</v>
       </c>
       <c r="U22">
-        <v>2.133588910863423</v>
+        <v>2.1335889108634229</v>
       </c>
       <c r="V22">
-        <v>154.3206059649594</v>
+        <v>154.32060596495941</v>
       </c>
       <c r="W22">
-        <v>37.22404951372837</v>
+        <v>37.224049513728367</v>
       </c>
       <c r="X22">
-        <v>253.5336844367438</v>
+        <v>253.53368443674381</v>
       </c>
       <c r="Y22">
-        <v>37.22404951372837</v>
+        <v>37.224049513728367</v>
       </c>
       <c r="Z22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2325,10 +2414,10 @@
         <v>244.5264180098817</v>
       </c>
       <c r="H23">
-        <v>29.40673507805482</v>
+        <v>29.406735078054819</v>
       </c>
       <c r="I23">
-        <v>215.1196829318268</v>
+        <v>215.11968293182679</v>
       </c>
       <c r="J23">
         <v>0.1</v>
@@ -2343,46 +2432,46 @@
         <v>0.1</v>
       </c>
       <c r="N23">
-        <v>0.9984367033514024</v>
+        <v>0.99843670335140244</v>
       </c>
       <c r="O23">
-        <v>244.5264180098816</v>
+        <v>244.52641800988161</v>
       </c>
       <c r="P23">
-        <v>29.06991264529984</v>
+        <v>29.069912645299841</v>
       </c>
       <c r="Q23">
-        <v>2.129619642609587</v>
+        <v>2.1296196426095868</v>
       </c>
       <c r="R23">
-        <v>153.5486483862064</v>
+        <v>153.54864838620639</v>
       </c>
       <c r="S23">
-        <v>8.411666763278623</v>
+        <v>8.4116667632786228</v>
       </c>
       <c r="T23">
-        <v>8.315320193174484</v>
+        <v>8.3153201931744842</v>
       </c>
       <c r="U23">
-        <v>2.118099619801795</v>
+        <v>2.1180996198017952</v>
       </c>
       <c r="V23">
         <v>152.8332885433868</v>
       </c>
       <c r="W23">
-        <v>29.40673507805482</v>
+        <v>29.406735078054819</v>
       </c>
       <c r="X23">
         <v>244.5264180098817</v>
       </c>
       <c r="Y23">
-        <v>29.06991264529984</v>
+        <v>29.069912645299841</v>
       </c>
       <c r="Z23">
-        <v>1.011586633811555</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
+        <v>1.0115866338115549</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2405,16 +2494,16 @@
         <v>246.7131148945972</v>
       </c>
       <c r="H24">
-        <v>34.56489381776902</v>
+        <v>34.564893817769018</v>
       </c>
       <c r="I24">
-        <v>212.1482210768282</v>
+        <v>212.14822107682821</v>
       </c>
       <c r="J24">
         <v>0.1</v>
       </c>
       <c r="K24">
-        <v>212.8952603878736</v>
+        <v>212.89526038787361</v>
       </c>
       <c r="L24">
         <v>5</v>
@@ -2423,46 +2512,46 @@
         <v>0.1</v>
       </c>
       <c r="N24">
-        <v>0.9964910477119855</v>
+        <v>0.99649104771198549</v>
       </c>
       <c r="O24">
         <v>246.7131148945972</v>
       </c>
       <c r="P24">
-        <v>33.81785450672358</v>
+        <v>33.817854506723577</v>
       </c>
       <c r="Q24">
-        <v>1.987237280566636</v>
+        <v>1.9872372805666361</v>
       </c>
       <c r="R24">
-        <v>145.6911591633341</v>
+        <v>145.69115916333411</v>
       </c>
       <c r="S24">
-        <v>7.295350887666347</v>
+        <v>7.2953508876663467</v>
       </c>
       <c r="T24">
-        <v>7.137678946601237</v>
+        <v>7.1376789466012367</v>
       </c>
       <c r="U24">
-        <v>1.965387645995517</v>
+        <v>1.9653876459955171</v>
       </c>
       <c r="V24">
         <v>144.2148057822381</v>
       </c>
       <c r="W24">
-        <v>41.09486008067086</v>
+        <v>41.094860080670863</v>
       </c>
       <c r="X24">
-        <v>253.243081157499</v>
+        <v>253.24308115749901</v>
       </c>
       <c r="Y24">
-        <v>40.34782076962537</v>
+        <v>40.347820769625372</v>
       </c>
       <c r="Z24">
-        <v>1.018514985364659</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26">
+        <v>1.0185149853646589</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2488,7 +2577,7 @@
         <v>27.56661509298624</v>
       </c>
       <c r="I25">
-        <v>247.310067496781</v>
+        <v>247.31006749678099</v>
       </c>
       <c r="J25">
         <v>0.1</v>
@@ -2512,37 +2601,37 @@
         <v>27.56661509298624</v>
       </c>
       <c r="Q25">
-        <v>2.299717127658169</v>
+        <v>2.2997171276581692</v>
       </c>
       <c r="R25">
         <v>183.9146506158803</v>
       </c>
       <c r="S25">
-        <v>9.971361433479148</v>
+        <v>9.9713614334791476</v>
       </c>
       <c r="T25">
-        <v>9.971361433479148</v>
+        <v>9.9713614334791476</v>
       </c>
       <c r="U25">
-        <v>2.299717127658169</v>
+        <v>2.2997171276581692</v>
       </c>
       <c r="V25">
         <v>183.9146506158803</v>
       </c>
       <c r="W25">
-        <v>34.26852987457642</v>
+        <v>34.268529874576423</v>
       </c>
       <c r="X25">
-        <v>281.5785973713574</v>
+        <v>281.57859737135738</v>
       </c>
       <c r="Y25">
-        <v>34.26852987457644</v>
+        <v>34.268529874576437</v>
       </c>
       <c r="Z25">
-        <v>0.9999999999999992</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26">
+        <v>0.99999999999999922</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2562,19 +2651,19 @@
         <v>4</v>
       </c>
       <c r="G26">
-        <v>214.5516408570521</v>
+        <v>214.55164085705209</v>
       </c>
       <c r="H26">
-        <v>26.18836454237172</v>
+        <v>26.188364542371719</v>
       </c>
       <c r="I26">
-        <v>188.3632763146803</v>
+        <v>188.36327631468029</v>
       </c>
       <c r="J26">
         <v>0.08</v>
       </c>
       <c r="K26">
-        <v>195.3623692661556</v>
+        <v>195.36236926615561</v>
       </c>
       <c r="L26">
         <v>4</v>
@@ -2583,46 +2672,46 @@
         <v>0.08</v>
       </c>
       <c r="N26">
-        <v>0.964173791617259</v>
+        <v>0.96417379161725902</v>
       </c>
       <c r="O26">
-        <v>214.5516408570521</v>
+        <v>214.55164085705209</v>
       </c>
       <c r="P26">
         <v>19.18927159089645</v>
       </c>
       <c r="Q26">
-        <v>2.414199107753394</v>
+        <v>2.4141991077533942</v>
       </c>
       <c r="R26">
-        <v>149.0356469129759</v>
+        <v>149.03564691297589</v>
       </c>
       <c r="S26">
         <v>11.18081214499237</v>
       </c>
       <c r="T26">
-        <v>8.192632285605928</v>
+        <v>8.1926322856059279</v>
       </c>
       <c r="U26">
-        <v>2.103235248620179</v>
+        <v>2.1032352486201789</v>
       </c>
       <c r="V26">
         <v>133.2829849054493</v>
       </c>
       <c r="W26">
-        <v>47.80343553257617</v>
+        <v>47.803435532576167</v>
       </c>
       <c r="X26">
-        <v>236.1667118472565</v>
+        <v>236.16671184725649</v>
       </c>
       <c r="Y26">
-        <v>40.80434258110088</v>
+        <v>40.804342581100883</v>
       </c>
       <c r="Z26">
         <v>1.171528139132844</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2642,19 +2731,19 @@
         <v>5</v>
       </c>
       <c r="G27">
-        <v>243.579141825067</v>
+        <v>243.57914182506701</v>
       </c>
       <c r="H27">
-        <v>22.61046110081273</v>
+        <v>22.610461100812731</v>
       </c>
       <c r="I27">
-        <v>220.9686807242543</v>
+        <v>220.96868072425431</v>
       </c>
       <c r="J27">
         <v>0.1</v>
       </c>
       <c r="K27">
-        <v>230.4775573175044</v>
+        <v>230.47755731750439</v>
       </c>
       <c r="L27">
         <v>5</v>
@@ -2669,10 +2758,10 @@
         <v>254.2160809529764</v>
       </c>
       <c r="P27">
-        <v>23.73852363547199</v>
+        <v>23.738523635471989</v>
       </c>
       <c r="Q27">
-        <v>2.371085419435175</v>
+        <v>2.3710854194351749</v>
       </c>
       <c r="R27">
         <v>174.1914900465195</v>
@@ -2684,25 +2773,25 @@
         <v>10.77285159020094</v>
       </c>
       <c r="U27">
-        <v>2.377029227728882</v>
+        <v>2.3770292277288818</v>
       </c>
       <c r="V27">
         <v>167.2229538351954</v>
       </c>
       <c r="W27">
-        <v>46.03157447533309</v>
+        <v>46.031574475333088</v>
       </c>
       <c r="X27">
-        <v>267.0002551995873</v>
+        <v>267.00025519958729</v>
       </c>
       <c r="Y27">
-        <v>36.52269788208292</v>
+        <v>36.522697882082923</v>
       </c>
       <c r="Z27">
         <v>1.260355262471313</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2722,10 +2811,10 @@
         <v>4</v>
       </c>
       <c r="G28">
-        <v>255.9071619061879</v>
+        <v>255.90716190618789</v>
       </c>
       <c r="H28">
-        <v>30.52659848457366</v>
+        <v>30.526598484573661</v>
       </c>
       <c r="I28">
         <v>225.3805634216142</v>
@@ -2746,43 +2835,43 @@
         <v>1</v>
       </c>
       <c r="O28">
-        <v>255.9071619061879</v>
+        <v>255.90716190618789</v>
       </c>
       <c r="P28">
-        <v>30.52659848457366</v>
+        <v>30.526598484573661</v>
       </c>
       <c r="Q28">
-        <v>2.126216344869934</v>
+        <v>2.1262163448699338</v>
       </c>
       <c r="R28">
         <v>160.474410770432</v>
       </c>
       <c r="S28">
-        <v>8.383088015374797</v>
+        <v>8.3830880153747973</v>
       </c>
       <c r="T28">
-        <v>8.383088015374797</v>
+        <v>8.3830880153747973</v>
       </c>
       <c r="U28">
-        <v>2.126216344869934</v>
+        <v>2.1262163448699338</v>
       </c>
       <c r="V28">
         <v>160.474410770432</v>
       </c>
       <c r="W28">
-        <v>43.53547756928327</v>
+        <v>43.535477569283273</v>
       </c>
       <c r="X28">
         <v>268.9160409908975</v>
       </c>
       <c r="Y28">
-        <v>43.53547756928327</v>
+        <v>43.535477569283273</v>
       </c>
       <c r="Z28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2802,10 +2891,10 @@
         <v>5</v>
       </c>
       <c r="G29">
-        <v>217.212812871959</v>
+        <v>217.21281287195899</v>
       </c>
       <c r="H29">
-        <v>32.53634159999443</v>
+        <v>32.536341599994429</v>
       </c>
       <c r="I29">
         <v>184.6764712719646</v>
@@ -2823,46 +2912,46 @@
         <v>0.1</v>
       </c>
       <c r="N29">
-        <v>0.992902793158257</v>
+        <v>0.99290279315825702</v>
       </c>
       <c r="O29">
-        <v>206.1173068924407</v>
+        <v>206.11730689244069</v>
       </c>
       <c r="P29">
-        <v>20.12077979582555</v>
+        <v>20.120779795825548</v>
       </c>
       <c r="Q29">
-        <v>2.326692355919816</v>
+        <v>2.3266923559198158</v>
       </c>
       <c r="R29">
-        <v>139.181662550522</v>
+        <v>139.18166255052199</v>
       </c>
       <c r="S29">
-        <v>10.24400192159569</v>
+        <v>10.244001921595689</v>
       </c>
       <c r="T29">
-        <v>6.676006034802517</v>
+        <v>6.6760060348025174</v>
       </c>
       <c r="U29">
-        <v>1.898519909754021</v>
+        <v>1.8985199097540211</v>
       </c>
       <c r="V29">
         <v>122.9055789538172</v>
       </c>
       <c r="W29">
-        <v>41.14150120404602</v>
+        <v>41.141501204046023</v>
       </c>
       <c r="X29">
         <v>225.8179724760106</v>
       </c>
       <c r="Y29">
-        <v>39.8214453793955</v>
+        <v>39.821445379395499</v>
       </c>
       <c r="Z29">
-        <v>1.033149369945611</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26">
+        <v>1.0331493699456109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2882,19 +2971,19 @@
         <v>4</v>
       </c>
       <c r="G30">
-        <v>252.3062524776433</v>
+        <v>252.30625247764331</v>
       </c>
       <c r="H30">
-        <v>30.25373369843432</v>
+        <v>30.253733698434321</v>
       </c>
       <c r="I30">
-        <v>222.052518779209</v>
+        <v>222.05251877920901</v>
       </c>
       <c r="J30">
         <v>0.08</v>
       </c>
       <c r="K30">
-        <v>226.658506188999</v>
+        <v>226.65850618899901</v>
       </c>
       <c r="L30">
         <v>4</v>
@@ -2903,46 +2992,46 @@
         <v>0.08</v>
       </c>
       <c r="N30">
-        <v>0.9796787357014111</v>
+        <v>0.97967873570141106</v>
       </c>
       <c r="O30">
-        <v>254.1899177389817</v>
+        <v>254.18991773898171</v>
       </c>
       <c r="P30">
-        <v>27.53141154998277</v>
+        <v>27.531411549982771</v>
       </c>
       <c r="Q30">
-        <v>2.222754104262208</v>
+        <v>2.2227541042622079</v>
       </c>
       <c r="R30">
-        <v>165.4629481701428</v>
+        <v>165.46294817014279</v>
       </c>
       <c r="S30">
         <v>9.232723766360639</v>
       </c>
       <c r="T30">
-        <v>8.339673211663806</v>
+        <v>8.3396732116638059</v>
       </c>
       <c r="U30">
         <v>2.121024032349232</v>
       </c>
       <c r="V30">
-        <v>157.8836225365359</v>
+        <v>157.88362253653591</v>
       </c>
       <c r="W30">
-        <v>38.09744478532863</v>
+        <v>38.097444785328634</v>
       </c>
       <c r="X30">
-        <v>260.1499635645376</v>
+        <v>260.14996356453759</v>
       </c>
       <c r="Y30">
         <v>33.49145737553863</v>
       </c>
       <c r="Z30">
-        <v>1.137527231441236</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26">
+        <v>1.1375272314412359</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2965,16 +3054,16 @@
         <v>238.0055989930591</v>
       </c>
       <c r="H31">
-        <v>34.7321815443818</v>
+        <v>34.732181544381802</v>
       </c>
       <c r="I31">
-        <v>203.2734174486773</v>
+        <v>203.27341744867729</v>
       </c>
       <c r="J31">
         <v>0.1</v>
       </c>
       <c r="K31">
-        <v>210.1333520777885</v>
+        <v>210.13335207778849</v>
       </c>
       <c r="L31">
         <v>5</v>
@@ -2983,46 +3072,89 @@
         <v>0.1</v>
       </c>
       <c r="N31">
-        <v>0.9673543749182101</v>
+        <v>0.96735437491821008</v>
       </c>
       <c r="O31">
-        <v>276.3304454643041</v>
+        <v>276.33044546430409</v>
       </c>
       <c r="P31">
-        <v>66.19709338651558</v>
+        <v>66.197093386515576</v>
       </c>
       <c r="Q31">
         <v>1.428960860309638</v>
       </c>
       <c r="R31">
-        <v>115.5402965621958</v>
+        <v>115.54029656219581</v>
       </c>
       <c r="S31">
-        <v>4.174359195060865</v>
+        <v>4.1743591950608652</v>
       </c>
       <c r="T31">
-        <v>6.852595731394776</v>
+        <v>6.8525957313947758</v>
       </c>
       <c r="U31">
         <v>1.924627519384674</v>
       </c>
       <c r="V31">
-        <v>136.4269050400956</v>
+        <v>136.42690504009559</v>
       </c>
       <c r="W31">
-        <v>73.05702801562686</v>
+        <v>73.057028015626855</v>
       </c>
       <c r="X31">
-        <v>276.3304454643041</v>
+        <v>276.33044546430409</v>
       </c>
       <c r="Y31">
-        <v>66.1970933865156</v>
+        <v>66.197093386515604</v>
       </c>
       <c r="Z31">
-        <v>1.10362894015689</v>
+        <v>1.1036289401568899</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J32" s="2">
+        <f>AVERAGE(J2:J31)</f>
+        <v>8.9333333333333362E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="2">
+        <f>AVERAGE(N2:N31)</f>
+        <v>0.98855703712872411</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="2">
+        <f>AVERAGE(Z2:Z31)</f>
+        <v>1.0542326723488169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="2">
+        <f>MIN(N2:N31)</f>
+        <v>0.95628022861417439</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="2">
+        <f>MAX(Z2:Z31)</f>
+        <v>1.260355262471313</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>